--- a/backend/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>b301c38e-14da-41f3-b6a5-c169f34a0038</t>
+    <t>5cc5a6e0-b545-4baa-9004-42ef7b8fba99</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>5cc5a6e0-b545-4baa-9004-42ef7b8fba99</t>
+    <t>2446fb9d-d56f-4956-bdbf-6ce1b8c2e2cc</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>2446fb9d-d56f-4956-bdbf-6ce1b8c2e2cc</t>
+    <t>577c3707-0cb2-47fd-aeb2-ba8b5ae7e1f1</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>577c3707-0cb2-47fd-aeb2-ba8b5ae7e1f1</t>
+    <t>c165e651-d9e2-4f5d-b63a-dd4eb801ce8e</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>c165e651-d9e2-4f5d-b63a-dd4eb801ce8e</t>
+    <t>e905b3b8-36f6-4169-962a-f68ebf294c53</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_pr.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pr.xlsx
@@ -23,7 +23,7 @@
     <t>ABATIENSE</t>
   </si>
   <si>
-    <t>e905b3b8-36f6-4169-962a-f68ebf294c53</t>
+    <t>3cd4787b-5007-40d7-90da-76c0dfd30eab</t>
   </si>
   <si>
     <t>ADRIANÓPOLIS</t>
